--- a/数据整理/stocks/港股/06186-中国飞鹤.xlsx
+++ b/数据整理/stocks/港股/06186-中国飞鹤.xlsx
@@ -451,491 +451,661 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8401</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>008133</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>华安优质生活混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>92.53</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.58</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0819</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9716</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9345</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4066</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>006675</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>宝盈品牌消费股票A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>94.49</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>9.32</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>006676</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>宝盈品牌消费股票C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>94.49</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>9.32</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009017</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银华港股通精选股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001703</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银华沪港深增长股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008303</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>宝盈龙头优选股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>9.41</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008304</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>宝盈龙头优选股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>9.41</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005358</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005359</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>501062</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>南方瑞合三年定期开放混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>86.39</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006537</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>恒生前海港股通精选混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>86.87</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007277</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>恒生前海消费升级混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>89.36</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007518</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>东方阿尔法优选混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>9.24</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007519</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>东方阿尔法优选混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>9.24</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009223</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>宝盈现代服务业混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>9.49</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009224</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>宝盈现代服务业混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>9.49</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -945,7 +1115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,15 +1136,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004266</t>
+          <t>005875</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+          <t>易方达中盘成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>134.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4512</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010754</t>
+          <t>006345</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+          <t>景顺长城集英成长两年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>75.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>97.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9778</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008861</t>
+          <t>010264</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>西部利得港股通新机遇灵活配置混合A</t>
+          <t>鹏华成长智选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>100.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>50.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4322</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010093</t>
+          <t>008954</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>西部利得港股通新机遇灵活配置混合C</t>
+          <t>安信价值回报三年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>35.71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3391</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161729</t>
+          <t>008133</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+          <t>华安优质生活混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>86.52</t>
+          <t>27.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>4.87</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>5</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3193</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501062</t>
+          <t>850588</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方瑞合三年定期开放混合(LOF)</t>
+          <t>海通核心优势一年持有期混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>44.01</t>
+          <t>32.64</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1946</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001215</t>
+          <t>900003</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时沪港深优质企业灵活配置混合A</t>
+          <t>中信证券臻选价值成长混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>84.49</t>
+          <t>65.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1126</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002555</t>
+          <t>005583</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时沪港深优质企业灵活配置混合C</t>
+          <t>易方达港股通红利灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>84.49</t>
+          <t>18.20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6661</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005583</t>
+          <t>009223</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达港股通红利灵活配置混合</t>
+          <t>宝盈现代服务业混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>86.09</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6128</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1238,25 +1508,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006345</t>
+          <t>900079</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>景顺长城集英成长两年定期开放混合</t>
+          <t>中信证券臻选价值成长混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>97.73</t>
+          <t>21.54</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3662</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010264</t>
+          <t>501062</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鹏华成长智选混合A</t>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>50.54</t>
+          <t>20.54</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>44.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3369</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1294,25 +1584,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010265</t>
+          <t>161729</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鹏华成长智选混合C</t>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>50.54</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2752</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1332,15 +1632,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>88.24</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>4.81</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2689</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1350,25 +1660,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005259</t>
+          <t>010265</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>建信龙头企业股票</t>
+          <t>鹏华成长智选混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>83.48</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>50.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008954</t>
+          <t>001215</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>安信价值回报三年持有期混合A</t>
+          <t>博时沪港深优质企业灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>89.14</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010667</t>
+          <t>005259</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>安信价值回报三年持有期混合C</t>
+          <t>建信龙头企业股票</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>89.14</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1444,15 +1784,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>91.93</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>6.05</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1462,25 +1812,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>850588</t>
+          <t>009224</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>海通核心优势一年持有期混合A</t>
+          <t>宝盈现代服务业混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>89.68</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005875</t>
+          <t>008861</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>易方达中盘成长混合</t>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>90.28</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>008133</t>
+          <t>004266</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华安优质生活混合</t>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>91.55</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009223</t>
+          <t>010093</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>宝盈现代服务业混合A</t>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1574,25 +1964,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009224</t>
+          <t>002555</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>宝盈现代服务业混合C</t>
+          <t>博时沪港深优质企业灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>900003</t>
+          <t>010754</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中信证券臻选价值成长混合A</t>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>76.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1630,25 +2040,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>900079</t>
+          <t>010667</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中信证券臻选价值成长混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>76.08</t>
-        </is>
-      </c>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06186-中国飞鹤.xlsx
+++ b/数据整理/stocks/港股/06186-中国飞鹤.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2048,7 +2049,6 @@
           <t>安信价值回报三年持有期混合C</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>89.14</t>
@@ -2064,6 +2064,326 @@
       </c>
       <c r="H25" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7763</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3660</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3452</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/06186-中国飞鹤.xlsx
+++ b/数据整理/stocks/港股/06186-中国飞鹤.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2389,4 +2390,362 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9921</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9488</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商金安成长严选1年封闭运作混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9363</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3478</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2288</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011858</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>33.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>33.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06186-中国飞鹤.xlsx
+++ b/数据整理/stocks/港股/06186-中国飞鹤.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2748,4 +2749,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06186-中国飞鹤.xlsx
+++ b/数据整理/stocks/港股/06186-中国飞鹤.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2757,7 +2758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2768,17 +2769,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2788,14 +2809,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>011882</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5364</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.5</v>
       </c>
     </row>
     <row r="3">
@@ -2804,14 +2847,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.54</v>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1032</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2820,14 +2885,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.94</v>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5571</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2836,13 +2923,567 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商金安成长严选1年封闭运作混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5542</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3223</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4360</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2718</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011527</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011883</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011858</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011859</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011528</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.99</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06186-中国飞鹤.xlsx
+++ b/数据整理/stocks/港股/06186-中国飞鹤.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3382,7 +3383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3393,17 +3394,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3413,14 +3434,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.22</v>
+          <t>011882</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7136</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3429,14 +3472,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4952</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.5</v>
       </c>
     </row>
     <row r="4">
@@ -3445,14 +3510,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.54</v>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1452</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3461,14 +3548,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>24</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.94</v>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商金安成长严选1年封闭运作混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1128</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3477,13 +3586,509 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0596</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3216</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011883</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011858</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011859</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>16</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.99</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06186-中国飞鹤.xlsx
+++ b/数据整理/stocks/港股/06186-中国飞鹤.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3971,7 +3972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3982,17 +3983,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4002,14 +4023,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.21</v>
+          <t>011882</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1050</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4018,14 +4061,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.22</v>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8931</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4034,14 +4099,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商金安成长严选1年封闭运作混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3641</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.5</v>
       </c>
     </row>
     <row r="5">
@@ -4050,14 +4137,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.54</v>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1855</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4066,14 +4175,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18.94</v>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7915</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -4082,13 +4213,753 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3366</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2301</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012218</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011883</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011858</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011859</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012219</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.859999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18.94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>5.99</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06186-中国飞鹤.xlsx
+++ b/数据整理/stocks/港股/06186-中国飞鹤.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>8.859999999999999</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>7.21</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>10.22</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>6.5</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>2.54</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>18.94</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>24</v>
+      </c>
+      <c r="D8" t="n">
+        <v>18.94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>16</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>5.99</v>
       </c>
     </row>
@@ -600,6 +617,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2529</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012892</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信优质企业三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7223</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012893</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信优质企业三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3267</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011858</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信中国制造混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011859</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1453,7 +1868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2041,7 +2456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2665,7 +3080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3023,7 +3438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3343,7 +3758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4304,7 +4719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/06186-中国飞鹤.xlsx
+++ b/数据整理/stocks/港股/06186-中国飞鹤.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>2.57</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>8.859999999999999</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>7.21</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>10.22</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>6.5</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>2.54</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>18.94</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,694 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>24</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>16</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>5.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8401</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0819</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9716</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9345</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4066</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1298,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012892</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信优质企业三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5920</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012893</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信优质企业三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2679</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2249</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014506</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011858</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011859</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014507</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1014,7 +2169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1868,7 +3023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2456,7 +3611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3080,7 +4235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3438,7 +4593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3758,7 +4913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4717,668 +5872,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009223</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>宝盈现代服务业混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19.39</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.8401</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008133</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安优质生活混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>30.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0819</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005358</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.48</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9716</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501062</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方瑞合三年定期开放混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20.63</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.39</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9345</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007518</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方阿尔法优选混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>9.24</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4066</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008303</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>宝盈龙头优选股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>9.41</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1449</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007519</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方阿尔法优选混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>9.24</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1284</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005359</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1074</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001703</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>银华沪港深增长股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0885</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009224</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>宝盈现代服务业混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>9.49</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0655</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007277</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>恒生前海消费升级混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.36</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0597</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006537</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>恒生前海港股通精选混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>86.87</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0489</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006675</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>宝盈品牌消费股票A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>9.32</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0410</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009017</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>银华港股通精选股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0367</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008304</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>宝盈龙头优选股票C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>9.41</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006676</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>宝盈品牌消费股票C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>9.32</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>